--- a/biology/Botanique/Boykinia/Boykinia.xlsx
+++ b/biology/Botanique/Boykinia/Boykinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boykinia est un genre de plantes de la famille des Saxifragacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (10 mai 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (10 mai 2022) :
 Boykinia aconitifolia Nutt.
 Boykinia heucheriformis (Rydb.) Rosendahl
 Boykinia intermedia (Piper) G.N. Jones
@@ -522,14 +536,14 @@
 Boykinia occidentalis Torr. &amp; Gray
 Boykinia richardsonii (Hook.) Rothrock
 Boykinia rotundifolia Parry
-Selon ITIS      (10 mai 2022)[2] :
+Selon ITIS      (10 mai 2022) :
 Boykinia aconitifolia Nutt.
 Boykinia intermedia (Piper) G.N. Jones
 Boykinia major A. Gray
 Boykinia occidentalis Torr. &amp; A. Gray
 Boykinia richardsonii (Hook.) Rothr.
 Boykinia rotundifolia Parry ex A. Gray
-Selon NCBI  (10 mai 2022)[3] :
+Selon NCBI  (10 mai 2022) :
 Boykinia aconitifolia Nutt., 1834
 Boykinia intermedia (Piper) G.N.Jones, 1936
 Boykinia lycoctonifolia (Maxim.) Engl., 1890
@@ -537,7 +551,7 @@
 Boykinia occidentalis Torr. &amp; A.Gray, 1840
 Boykinia richardsonii (Hook.) A.Gray ex B.D.Jacks., 1893
 Boykinia rotundifolia Parry ex A.Gray, 1878
-Selon The Plant List            (10 mai 2022)[4] :
+Selon The Plant List            (10 mai 2022) :
 Boykinia aconitifolia Nutt.
 Boykinia cincinnata (Rosend. &amp; Rydb.) Fedde
 Boykinia heucheriformis (Rydb.) Rosend.
@@ -548,7 +562,7 @@
 Boykinia occidentalis Torr. &amp; A.Gray
 Boykinia richardsonii (Hook.) A.Gray ex B.D.Jacks.
 Boykinia rotundifolia Parry ex A.Gray
-Selon Tropicos                                           (10 mai 2022)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 mai 2022) (Attention liste brute contenant possiblement des synonymes) :
 Boykinia aconitifolia Nutt.
 Boykinia cincinnata (Rosend. &amp; Rydb.) Fedde
 Boykinia elata (Nutt.) Greene
